--- a/lib/test.xlsx
+++ b/lib/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayash\Programming\vortex_parser\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayash\Programming\vortex_parser\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571E4A74-C3CF-431A-9C05-2F521AF94C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4141D4B5-A5AB-46F7-80AC-31D0B1A0014E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="522" xr2:uid="{93DD1A3E-79F5-40A0-9DE4-B4C0229D9C52}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="AAA">Sheet1!$AMP$14</definedName>
-    <definedName name="Ash">Sheet1!$AMP$14</definedName>
-    <definedName name="YAS">Sheet1!$AMK$13</definedName>
-    <definedName name="Yash">Sheet1!$AMZ$16</definedName>
+    <definedName name="AAA">Sheet1!$AMP$13</definedName>
+    <definedName name="Ash">Sheet1!$AMP$13</definedName>
+    <definedName name="YAS">Sheet1!#REF!</definedName>
+    <definedName name="Yash">Sheet1!$AMZ$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -108,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{223118F4-9D07-4F0F-B0F6-E9FA1730BA3C}">
+    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{223118F4-9D07-4F0F-B0F6-E9FA1730BA3C}">
       <text>
         <r>
           <rPr>
@@ -123,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{74C853AC-3CBF-42F9-B02D-CA1793531FF3}">
+    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{74C853AC-3CBF-42F9-B02D-CA1793531FF3}">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C35" authorId="0" shapeId="0" xr:uid="{86DF9F11-6AC8-460D-8DEE-288244B2928E}">
+    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{86DF9F11-6AC8-460D-8DEE-288244B2928E}">
       <text>
         <r>
           <rPr>
@@ -154,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{41A0DAC0-B21F-4186-9E42-98CD7F8B0EB8}">
+    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{41A0DAC0-B21F-4186-9E42-98CD7F8B0EB8}">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{D52403CF-E70E-4B09-89D1-5F3721CDE864}">
+    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{D52403CF-E70E-4B09-89D1-5F3721CDE864}">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F39" authorId="0" shapeId="0" xr:uid="{FA2DFF4C-F16E-43CB-B284-772CF2537860}">
+    <comment ref="F37" authorId="0" shapeId="0" xr:uid="{FA2DFF4C-F16E-43CB-B284-772CF2537860}">
       <text>
         <r>
           <rPr>
@@ -206,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H39" authorId="0" shapeId="0" xr:uid="{48AC92F8-6594-4C3D-9A0E-FC7EC341BC7D}">
+    <comment ref="G37" authorId="0" shapeId="0" xr:uid="{48AC92F8-6594-4C3D-9A0E-FC7EC341BC7D}">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I39" authorId="0" shapeId="0" xr:uid="{90E967F4-FAD4-42A4-B35D-FA10CAFF3F37}">
+    <comment ref="H37" authorId="0" shapeId="0" xr:uid="{90E967F4-FAD4-42A4-B35D-FA10CAFF3F37}">
       <text>
         <r>
           <rPr>
@@ -236,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J39" authorId="0" shapeId="0" xr:uid="{29D4A36C-C4A4-4DAD-BE59-79149E094979}">
+    <comment ref="I37" authorId="0" shapeId="0" xr:uid="{29D4A36C-C4A4-4DAD-BE59-79149E094979}">
       <text>
         <r>
           <rPr>
@@ -251,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K39" authorId="0" shapeId="0" xr:uid="{33C294C0-F60B-4307-9417-CD8B5BB4AF57}">
+    <comment ref="J37" authorId="0" shapeId="0" xr:uid="{33C294C0-F60B-4307-9417-CD8B5BB4AF57}">
       <text>
         <r>
           <rPr>
@@ -266,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L39" authorId="0" shapeId="0" xr:uid="{C7FE1C85-F8F6-453C-9B74-B7B8D0250FBC}">
+    <comment ref="K37" authorId="0" shapeId="0" xr:uid="{C7FE1C85-F8F6-453C-9B74-B7B8D0250FBC}">
       <text>
         <r>
           <rPr>
@@ -281,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M39" authorId="0" shapeId="0" xr:uid="{DCED84F2-B478-4051-A5B7-FCDDF3082FF3}">
+    <comment ref="L37" authorId="0" shapeId="0" xr:uid="{DCED84F2-B478-4051-A5B7-FCDDF3082FF3}">
       <text>
         <r>
           <rPr>
@@ -296,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N39" authorId="0" shapeId="0" xr:uid="{21B501C1-3F2B-41D4-9121-BEB3790195BD}">
+    <comment ref="M37" authorId="0" shapeId="0" xr:uid="{21B501C1-3F2B-41D4-9121-BEB3790195BD}">
       <text>
         <r>
           <rPr>
@@ -311,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O39" authorId="0" shapeId="0" xr:uid="{02DF3982-A9B9-4B48-9B1F-95BF74DCED0C}">
+    <comment ref="N37" authorId="0" shapeId="0" xr:uid="{02DF3982-A9B9-4B48-9B1F-95BF74DCED0C}">
       <text>
         <r>
           <rPr>
@@ -326,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P39" authorId="0" shapeId="0" xr:uid="{C3D135EF-2648-4BAC-97F0-7BF8BF079E98}">
+    <comment ref="O37" authorId="0" shapeId="0" xr:uid="{C3D135EF-2648-4BAC-97F0-7BF8BF079E98}">
       <text>
         <r>
           <rPr>
@@ -341,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q39" authorId="0" shapeId="0" xr:uid="{C66108AB-6ED8-45A2-BF58-39375F11183D}">
+    <comment ref="P37" authorId="0" shapeId="0" xr:uid="{C66108AB-6ED8-45A2-BF58-39375F11183D}">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R39" authorId="0" shapeId="0" xr:uid="{B0E979A9-4337-44CE-B459-6412C406EDFE}">
+    <comment ref="Q37" authorId="0" shapeId="0" xr:uid="{B0E979A9-4337-44CE-B459-6412C406EDFE}">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="S39" authorId="0" shapeId="0" xr:uid="{B9D631A7-33C2-409D-873A-C3977FDA4210}">
+    <comment ref="R37" authorId="0" shapeId="0" xr:uid="{B9D631A7-33C2-409D-873A-C3977FDA4210}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Is this value applicable for this instument's housekeeping
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S37" authorId="0" shapeId="0" xr:uid="{B888F630-1703-4A4C-8AFC-F26BA5A9AAE3}">
       <text>
         <r>
           <rPr>
@@ -391,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
   <si>
     <t>Bitmask</t>
   </si>
@@ -399,9 +414,6 @@
     <t>mNLP</t>
   </si>
   <si>
-    <t>EFP</t>
-  </si>
-  <si>
     <t>ACC</t>
   </si>
   <si>
@@ -411,9 +423,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>FPP</t>
-  </si>
-  <si>
     <t>DIG ACC</t>
   </si>
   <si>
@@ -438,9 +447,6 @@
     <t>Board ID</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
     <t>Housekeeping</t>
   </si>
   <si>
@@ -525,12 +531,6 @@
     <t>255;255;192</t>
   </si>
   <si>
-    <t>32;33;38</t>
-  </si>
-  <si>
-    <t>34;35;38</t>
-  </si>
-  <si>
     <t>52;53;58</t>
   </si>
   <si>
@@ -540,9 +540,6 @@
     <t>56;57;58</t>
   </si>
   <si>
-    <t>36;37;39</t>
-  </si>
-  <si>
     <t>59;60;63</t>
   </si>
   <si>
@@ -633,16 +630,37 @@
     <t>Hover over  titles to read descriptions</t>
   </si>
   <si>
-    <t>12;17</t>
-  </si>
-  <si>
-    <t>20;33</t>
-  </si>
-  <si>
     <t>36;37</t>
   </si>
   <si>
-    <t>40;42</t>
+    <t>PIP</t>
+  </si>
+  <si>
+    <t>35;36;37</t>
+  </si>
+  <si>
+    <t>32;33;34</t>
+  </si>
+  <si>
+    <t>38;39</t>
+  </si>
+  <si>
+    <t>255;255</t>
+  </si>
+  <si>
+    <t>12;16</t>
+  </si>
+  <si>
+    <t>19;31</t>
+  </si>
+  <si>
+    <t>Dig ACC</t>
+  </si>
+  <si>
+    <t>38;40</t>
+  </si>
+  <si>
+    <t>#7e2f8e</t>
   </si>
 </sst>
 </file>
@@ -704,7 +722,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -801,6 +819,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7E2F8E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -875,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -964,10 +988,13 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1296,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7758D255-7225-412E-BCCB-5D6A66A51808}">
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,59 +1339,62 @@
     <row r="1" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D2" s="28">
         <v>620000</v>
       </c>
-      <c r="K2" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="K2" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D3" s="28">
         <v>5000</v>
       </c>
-      <c r="K3" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+      <c r="K3" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
     </row>
     <row r="4" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="27" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D4" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
     </row>
     <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K5" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
+      <c r="K5" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="27" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>80</v>
@@ -1372,7 +1402,7 @@
     </row>
     <row r="7" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="27" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>81</v>
@@ -1380,15 +1410,15 @@
     </row>
     <row r="8" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="27" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>83</v>
@@ -1397,36 +1427,36 @@
     <row r="10" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I11" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>6</v>
       </c>
       <c r="E12" s="14">
         <v>0</v>
@@ -1435,172 +1465,179 @@
         <v>0</v>
       </c>
       <c r="G12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>4</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>5</v>
       </c>
       <c r="I12" s="19">
         <v>5000</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>4</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>5</v>
       </c>
       <c r="I13" s="20">
         <v>5000</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="16">
+      <c r="H14" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="20">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16">
         <v>0</v>
       </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="20" t="s">
+      <c r="F15" s="16">
+        <v>2</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="20">
+      <c r="I15" s="20">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="16">
-        <v>1</v>
-      </c>
-      <c r="F15" s="16">
-        <v>1</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="20">
-        <v>2500</v>
-      </c>
-    </row>
     <row r="16" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E16" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="16">
         <v>2</v>
       </c>
       <c r="G16" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>5</v>
-      </c>
       <c r="I16" s="20">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="C17" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="16">
-        <v>1</v>
-      </c>
-      <c r="F17" s="16">
-        <v>2</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="20">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>0</v>
-      </c>
+      <c r="B19" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="24" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
-        <v>67</v>
-      </c>
+      <c r="B20" s="32"/>
       <c r="C20" s="15" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" s="24" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1616,53 +1653,46 @@
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="34"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="15" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" s="24" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+        <v>40</v>
+      </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="34"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" s="24" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="26" t="s">
         <v>42</v>
+      </c>
+      <c r="G22" s="26">
+        <v>255255240</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1670,52 +1700,65 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="34"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23" s="24" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="26" t="s">
         <v>43</v>
       </c>
+      <c r="G23" s="26">
+        <v>255255240</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="34"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" s="24" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="26">
-        <v>255255240</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1728,31 +1771,28 @@
       <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="34"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="24" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="26">
-        <v>255255240</v>
+        <v>45</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1760,25 +1800,28 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="34"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="24" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1789,24 +1832,25 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="34"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E27" s="24" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="F27" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="25" t="s">
         <v>51</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>53</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1820,27 +1864,28 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="34"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E28" s="24" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1852,28 +1897,25 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="34"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29" s="24" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+        <v>51</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -1884,28 +1926,27 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="34"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="15" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" s="24" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1919,23 +1960,25 @@
       <c r="S30" s="3"/>
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="34"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="15" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E31" s="24" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>57</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -1946,26 +1989,8 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="34"/>
-      <c r="C32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="24" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>59</v>
-      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -1978,24 +2003,23 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
     </row>
     <row r="33" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="34"/>
-      <c r="C33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="24" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>59</v>
+      <c r="C33" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -2009,8 +2033,27 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
     </row>
     <row r="34" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -2026,20 +2069,21 @@
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="B35" s="32"/>
+      <c r="C35" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>40</v>
+      <c r="D35" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="16">
+        <v>1</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -2053,27 +2097,13 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
     </row>
     <row r="36" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="16">
-        <v>0</v>
-      </c>
-      <c r="F36" s="16">
-        <v>0</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>38</v>
-      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -2086,139 +2116,219 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
     </row>
     <row r="37" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="34"/>
-      <c r="C37" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="16">
-        <v>1</v>
-      </c>
-      <c r="F37" s="16">
+      <c r="C37" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G37" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
+      <c r="I37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="38" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-    </row>
-    <row r="39" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="18" t="s">
+      <c r="B38" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="I39" s="23" t="s">
+      <c r="D38" s="21">
+        <v>2500</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="4">
+        <v>34</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J38" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="J39" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="7" t="s">
+      <c r="K38" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N38" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O38" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="P38" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R38" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S38" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="32"/>
+      <c r="C39" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="21">
+        <v>5000</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="4">
         <v>18</v>
       </c>
-      <c r="L39" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N39" s="7" t="s">
+      <c r="G39" s="25">
         <v>21</v>
       </c>
-      <c r="O39" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="R39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="S39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="34" t="s">
-        <v>16</v>
-      </c>
+      <c r="H39" s="25">
+        <v>255</v>
+      </c>
+      <c r="I39" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J39" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K39" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N39" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O39" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="P39" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q39" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R39" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S39" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="32"/>
       <c r="C40" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="21">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="4">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="G40" s="25">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="H40" s="25">
-        <v>39</v>
-      </c>
-      <c r="I40" s="25">
-        <v>15</v>
+        <v>255</v>
+      </c>
+      <c r="I40" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="J40" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="K40" s="6" t="b">
         <f>FALSE()</f>
@@ -2229,195 +2339,65 @@
         <v>0</v>
       </c>
       <c r="M40" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N40" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N40" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="O40" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="P40" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q40" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="R40" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="S40" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="34"/>
-      <c r="C41" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="21">
-        <v>5000</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="4">
-        <v>18</v>
-      </c>
-      <c r="G41" s="25">
-        <v>11</v>
-      </c>
-      <c r="H41" s="25">
-        <v>21</v>
-      </c>
-      <c r="I41" s="25">
-        <v>255</v>
-      </c>
-      <c r="J41" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K41" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="L41" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M41" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O41" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="P41" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q41" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="R41" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="S41" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="P40" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q40" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R40" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S40" s="6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="T40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T41" s="3"/>
     </row>
     <row r="42" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="34"/>
-      <c r="C42" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="21">
-        <v>5000</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="4">
-        <v>51</v>
-      </c>
-      <c r="G42" s="25">
-        <v>11</v>
-      </c>
-      <c r="H42" s="25">
-        <v>63</v>
-      </c>
-      <c r="I42" s="25">
-        <v>255</v>
-      </c>
-      <c r="J42" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K42" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O42" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="P42" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="R42" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="S42" s="6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="T42" t="s">
-        <v>41</v>
-      </c>
+      <c r="T42" s="3"/>
     </row>
     <row r="43" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T43" s="3"/>
     </row>
-    <row r="44" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T44" s="3"/>
-    </row>
-    <row r="45" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T45" s="3"/>
-    </row>
-    <row r="46" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B20:B33"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B19:B31"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B12:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K22:M22 K25:P26 K30:P31 L27:Q29 L24:Q24 L21:Q21 L23:M23">
+  <conditionalFormatting sqref="K23:P24 K28:P29 L25:Q27 L22:Q22 L20:Q20 L21:M21">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -2433,20 +2413,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3be8e3c0-2842-4b5c-b060-a331e5ce9465" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3be8e3c0-2842-4b5c-b060-a331e5ce9465" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2679,6 +2659,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B746C5C-9FCE-47B1-9B21-C70DB5E5E0E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F39B334-7462-4EA1-A1AF-57733766443C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2691,14 +2679,6 @@
     <ds:schemaRef ds:uri="6b4e13fc-0909-4af8-88c8-1f82cb55b253"/>
     <ds:schemaRef ds:uri="3be8e3c0-2842-4b5c-b060-a331e5ce9465"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B746C5C-9FCE-47B1-9B21-C70DB5E5E0E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
